--- a/_data/raw.xlsx
+++ b/_data/raw.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="buoys" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stretches" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="example" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="248">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -38,10 +39,10 @@
     <t xml:space="preserve">Sport G</t>
   </si>
   <si>
-    <t xml:space="preserve">52°36,3000' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°9,8000' E</t>
+    <t xml:space="preserve">52°36.3000'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°9.8000'E</t>
   </si>
   <si>
     <t xml:space="preserve">Markermeer</t>
@@ -50,7 +51,7 @@
     <t xml:space="preserve">Sport H</t>
   </si>
   <si>
-    <t xml:space="preserve">52°32,1000' N</t>
+    <t xml:space="preserve">52°32.1000'N</t>
   </si>
   <si>
     <t xml:space="preserve">Sport M</t>
@@ -65,73 +66,73 @@
     <t xml:space="preserve">MN1 GZ2</t>
   </si>
   <si>
-    <t xml:space="preserve">52°29,8210' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°6,1300' E</t>
+    <t xml:space="preserve">52°29.8210'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°6.1300'E</t>
   </si>
   <si>
     <t xml:space="preserve">Sport J</t>
   </si>
   <si>
-    <t xml:space="preserve">52°28,0000' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°14,0000' E</t>
+    <t xml:space="preserve">52°28.0000'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°14.0000'E</t>
   </si>
   <si>
     <t xml:space="preserve">EA1</t>
   </si>
   <si>
-    <t xml:space="preserve">52°34,7780' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°13,4330' E</t>
+    <t xml:space="preserve">52°34.7780'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°13.4330'E</t>
   </si>
   <si>
     <t xml:space="preserve">EA2</t>
   </si>
   <si>
-    <t xml:space="preserve">52°30,6548' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°12,9995' E</t>
+    <t xml:space="preserve">52°30.6548'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°12.9995'E</t>
   </si>
   <si>
     <t xml:space="preserve">Sport I</t>
   </si>
   <si>
-    <t xml:space="preserve">52°32,0000' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°21,3600' E</t>
+    <t xml:space="preserve">52°32.0000'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°21.3600'E</t>
   </si>
   <si>
     <t xml:space="preserve">KG18</t>
   </si>
   <si>
-    <t xml:space="preserve">52°38,8918' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°13,9278' E</t>
+    <t xml:space="preserve">52°38.8918'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°13.9278'E</t>
   </si>
   <si>
     <t xml:space="preserve">KG 10</t>
   </si>
   <si>
-    <t xml:space="preserve">52°40,6564' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°16,0393' E</t>
+    <t xml:space="preserve">52°40.6564'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°16.0393'E</t>
   </si>
   <si>
     <t xml:space="preserve">Sport C</t>
   </si>
   <si>
-    <t xml:space="preserve">52°48,0000' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°9,0000' E</t>
+    <t xml:space="preserve">52°48.0000'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°9.0000'E</t>
   </si>
   <si>
     <t xml:space="preserve">Ijsselmeer</t>
@@ -140,217 +141,217 @@
     <t xml:space="preserve">WV 19</t>
   </si>
   <si>
-    <t xml:space="preserve">52°52,0350' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°8,9320' E</t>
+    <t xml:space="preserve">52°52.0350'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°8.9320'E</t>
   </si>
   <si>
     <t xml:space="preserve">WV 12</t>
   </si>
   <si>
-    <t xml:space="preserve">52°53,7260' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°6,4580' E</t>
+    <t xml:space="preserve">52°53.7260'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°6.4580'E</t>
   </si>
   <si>
     <t xml:space="preserve">KRA</t>
   </si>
   <si>
-    <t xml:space="preserve">52°49,5430' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°13,5380' E</t>
+    <t xml:space="preserve">52°49.5430'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°13.5380'E</t>
   </si>
   <si>
     <t xml:space="preserve">Sport A</t>
   </si>
   <si>
-    <t xml:space="preserve">52°58,0000' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°10,0000' E</t>
+    <t xml:space="preserve">52°58.0000'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°10.0000'E</t>
   </si>
   <si>
     <t xml:space="preserve">Sport B</t>
   </si>
   <si>
-    <t xml:space="preserve">52°57,0000' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°14,5000' E</t>
+    <t xml:space="preserve">52°57.0000'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°14.5000'E</t>
   </si>
   <si>
     <t xml:space="preserve">VF7</t>
   </si>
   <si>
-    <t xml:space="preserve">53°2,1990' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°20,9370' E</t>
+    <t xml:space="preserve">53°2.1990'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°20.9370'E</t>
   </si>
   <si>
     <t xml:space="preserve">H2 W1</t>
   </si>
   <si>
-    <t xml:space="preserve">52°57,5030' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°23,4730' E</t>
+    <t xml:space="preserve">52°57.5030'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°23.4730'E</t>
   </si>
   <si>
     <t xml:space="preserve">VF A</t>
   </si>
   <si>
-    <t xml:space="preserve">52°56,5572' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°18,9913' E</t>
+    <t xml:space="preserve">52°56.5572'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°18.9913'E</t>
   </si>
   <si>
     <t xml:space="preserve">VF B</t>
   </si>
   <si>
-    <t xml:space="preserve">52°54,3060' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°18,8300' E</t>
+    <t xml:space="preserve">52°54.3060'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°18.8300'E</t>
   </si>
   <si>
     <t xml:space="preserve">LC1</t>
   </si>
   <si>
-    <t xml:space="preserve">52°51,3420' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°18,3630' E</t>
+    <t xml:space="preserve">52°51.3420'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°18.3630'E</t>
   </si>
   <si>
     <t xml:space="preserve">LC 11</t>
   </si>
   <si>
-    <t xml:space="preserve">52°48,6190' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°18,1958' E</t>
+    <t xml:space="preserve">52°48.6190'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°18.1958'E</t>
   </si>
   <si>
     <t xml:space="preserve">Sport D</t>
   </si>
   <si>
-    <t xml:space="preserve">52°45,5000' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°18,0000' E</t>
+    <t xml:space="preserve">52°45.5000'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°18.0000'E</t>
   </si>
   <si>
     <t xml:space="preserve">KG</t>
   </si>
   <si>
-    <t xml:space="preserve">52°43,1342' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°20,0062' E</t>
+    <t xml:space="preserve">52°43.1342'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°20.0062'E</t>
   </si>
   <si>
     <t xml:space="preserve">SB 8</t>
   </si>
   <si>
-    <t xml:space="preserve">52°49,2637' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°21,2788' E</t>
+    <t xml:space="preserve">52°49.2637'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°21.2788'E</t>
   </si>
   <si>
     <t xml:space="preserve">SB 18</t>
   </si>
   <si>
-    <t xml:space="preserve">52°49,2356' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°25,6348' E</t>
+    <t xml:space="preserve">52°49.2356'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°25.6348'E</t>
   </si>
   <si>
     <t xml:space="preserve">SB 28</t>
   </si>
   <si>
-    <t xml:space="preserve">52°49,2114' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°30,1380' E</t>
+    <t xml:space="preserve">52°49.2114'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°30.1380'E</t>
   </si>
   <si>
     <t xml:space="preserve">SB 40</t>
   </si>
   <si>
-    <t xml:space="preserve">52°49,1748' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°35,5292' E</t>
+    <t xml:space="preserve">52°49.1748'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°35.5292'E</t>
   </si>
   <si>
     <t xml:space="preserve">EL A</t>
   </si>
   <si>
-    <t xml:space="preserve">52°45,1087' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°26,6923' E</t>
+    <t xml:space="preserve">52°45.1087'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°26.6923'E</t>
   </si>
   <si>
     <t xml:space="preserve">EL B</t>
   </si>
   <si>
-    <t xml:space="preserve">52°45,6790' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°31,1302' E</t>
+    <t xml:space="preserve">52°45.6790'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°31.1302'E</t>
   </si>
   <si>
     <t xml:space="preserve">EZ C</t>
   </si>
   <si>
-    <t xml:space="preserve">52°42,5778' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°26,1977' E</t>
+    <t xml:space="preserve">52°42.5778'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°26.1977'E</t>
   </si>
   <si>
     <t xml:space="preserve">EZ D</t>
   </si>
   <si>
-    <t xml:space="preserve">52°40,7508' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°29,9092' E</t>
+    <t xml:space="preserve">52°40.7508'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°29.9092'E</t>
   </si>
   <si>
     <t xml:space="preserve">Sport E</t>
   </si>
   <si>
-    <t xml:space="preserve">52°37,0000' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°30,0000' E</t>
+    <t xml:space="preserve">52°37.0000'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°30.0000'E</t>
   </si>
   <si>
     <t xml:space="preserve">Sport F</t>
   </si>
   <si>
-    <t xml:space="preserve">52°36,0000' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°28,0000' E</t>
+    <t xml:space="preserve">52°36.0000'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°28.0000'E</t>
   </si>
   <si>
     <t xml:space="preserve">BO 7 KZ 2</t>
   </si>
   <si>
-    <t xml:space="preserve">53°5,0200' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°20,2942' E</t>
+    <t xml:space="preserve">53°5.0200'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°20.2942'E</t>
   </si>
   <si>
     <t xml:space="preserve">Wadden en Noordzee</t>
@@ -359,127 +360,253 @@
     <t xml:space="preserve">D7 J 2</t>
   </si>
   <si>
-    <t xml:space="preserve">53°1,9878' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°8,2492' E</t>
+    <t xml:space="preserve">53°1.9878'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°8.2492'E</t>
   </si>
   <si>
     <t xml:space="preserve">GVS 3 M 8</t>
   </si>
   <si>
-    <t xml:space="preserve">52°59,2601' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°51,5668' E</t>
+    <t xml:space="preserve">52°59.2601'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°51.5668'E</t>
   </si>
   <si>
     <t xml:space="preserve">T11 GVS 2</t>
   </si>
   <si>
-    <t xml:space="preserve">52°59,8978' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°49,1018' E</t>
+    <t xml:space="preserve">52°59.8978'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°49.1018'E</t>
   </si>
   <si>
     <t xml:space="preserve">MH 4 M1</t>
   </si>
   <si>
-    <t xml:space="preserve">52°58,1358' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°47,4877' E</t>
+    <t xml:space="preserve">52°58.1358'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°47.4877'E</t>
   </si>
   <si>
     <t xml:space="preserve">SG</t>
   </si>
   <si>
-    <t xml:space="preserve">52°52,9042' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°37,9035' E</t>
+    <t xml:space="preserve">52°52.9042'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°37.9035'E</t>
   </si>
   <si>
     <t xml:space="preserve">ZH</t>
   </si>
   <si>
-    <t xml:space="preserve">52°54,6480' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°34,7120' E</t>
+    <t xml:space="preserve">52°54.6480'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°34.7120'E</t>
   </si>
   <si>
     <t xml:space="preserve">MR</t>
   </si>
   <si>
-    <t xml:space="preserve">52°56,7710' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°33,8030' E</t>
+    <t xml:space="preserve">52°56.7710'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°33.8030'E</t>
   </si>
   <si>
     <t xml:space="preserve">NH</t>
   </si>
   <si>
-    <t xml:space="preserve">53°0,2290' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°35,3650' E</t>
+    <t xml:space="preserve">53°0.2290'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°35.3650'E</t>
   </si>
   <si>
     <t xml:space="preserve">WK Baden</t>
   </si>
   <si>
-    <t xml:space="preserve">53°13,5530' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°41,4600' E</t>
+    <t xml:space="preserve">53°13.5530'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°41.4600'E</t>
   </si>
   <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
-    <t xml:space="preserve">53°13,3580' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°47,0880' E</t>
+    <t xml:space="preserve">53°13.3580'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°47.0880'E</t>
   </si>
   <si>
     <t xml:space="preserve">ZS</t>
   </si>
   <si>
-    <t xml:space="preserve">53°18,2782' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°56,2316' E</t>
+    <t xml:space="preserve">53°18.2782'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4°56.2316'E</t>
   </si>
   <si>
     <t xml:space="preserve">SM 7 ZS 16</t>
   </si>
   <si>
-    <t xml:space="preserve">53°19,3902' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°7,7003' E</t>
+    <t xml:space="preserve">53°19.3902'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°7.7003'E</t>
   </si>
   <si>
     <t xml:space="preserve">BS 1-IN 2</t>
   </si>
   <si>
-    <t xml:space="preserve">53°15,4396' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°9,3737' E</t>
+    <t xml:space="preserve">53°15.4396'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°9.3737'E</t>
   </si>
   <si>
     <t xml:space="preserve">P 9 BO 46</t>
   </si>
   <si>
-    <t xml:space="preserve">53°10,6378' N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5°23,8067' E</t>
+    <t xml:space="preserve">53°10.6378'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°23.8067'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENK-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°42.272'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°18.418'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENK-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°41.110'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°16.808'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°57.330'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°23.656'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOEK-Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°25.184'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°08.676'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOORN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°37.978'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°03.878'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LELY-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°32.365'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°26.254'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LELY-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°31.179'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°25.543'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°46.8'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°07.4'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°55.482'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°03.034'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°52.575'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°21.581'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°29.48'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°05.45'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEMMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°50.197'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°42.202'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KORN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53°04.742'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°20.058'E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52°47.08'N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5°08.22'E</t>
   </si>
   <si>
     <t xml:space="preserve">Start</t>
@@ -497,559 +624,148 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">ENK-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3053</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">start</t>
   </si>
   <si>
-    <t xml:space="preserve">ENK-Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">KG10</t>
   </si>
   <si>
-    <t xml:space="preserve">0,6333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIND</t>
-  </si>
-  <si>
     <t xml:space="preserve">H2-W1</t>
   </si>
   <si>
-    <t xml:space="preserve">0,2135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOEK-Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-J</t>
   </si>
   <si>
-    <t xml:space="preserve">4,2872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOORN</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-G</t>
   </si>
   <si>
-    <t xml:space="preserve">3,9741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LELY-N</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-E</t>
   </si>
   <si>
-    <t xml:space="preserve">5,2806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LELY-Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-I</t>
   </si>
   <si>
-    <t xml:space="preserve">2,6840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MED</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-C</t>
   </si>
   <si>
-    <t xml:space="preserve">1,5452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OEVE</t>
-  </si>
-  <si>
     <t xml:space="preserve">WV12</t>
   </si>
   <si>
-    <t xml:space="preserve">2,7160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,2436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOLE</t>
-  </si>
-  <si>
     <t xml:space="preserve">MN1-GZ2</t>
   </si>
   <si>
-    <t xml:space="preserve">0,5457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEMMER</t>
-  </si>
-  <si>
     <t xml:space="preserve">SB40</t>
   </si>
   <si>
-    <t xml:space="preserve">4,1802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KORN</t>
-  </si>
-  <si>
     <t xml:space="preserve">BO7-KZ2</t>
   </si>
   <si>
-    <t xml:space="preserve">0,3145</t>
-  </si>
-  <si>
     <t xml:space="preserve">WK BADEN</t>
   </si>
   <si>
-    <t xml:space="preserve">13,8404</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">regular</t>
   </si>
   <si>
-    <t xml:space="preserve">3,3884</t>
-  </si>
-  <si>
     <t xml:space="preserve">D7-J2</t>
   </si>
   <si>
-    <t xml:space="preserve">8,1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,9000</t>
-  </si>
-  <si>
     <t xml:space="preserve">P9-BO46</t>
   </si>
   <si>
-    <t xml:space="preserve">6,6200</t>
-  </si>
-  <si>
     <t xml:space="preserve">BS1-IN2</t>
   </si>
   <si>
-    <t xml:space="preserve">10,9000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,6893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,0969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,9817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,2821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,2796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,1383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,7273</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-H</t>
   </si>
   <si>
-    <t xml:space="preserve">2,4321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,1864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,9264</t>
-  </si>
-  <si>
     <t xml:space="preserve">EL-A</t>
   </si>
   <si>
     <t xml:space="preserve">EL-B</t>
   </si>
   <si>
-    <t xml:space="preserve">2,7538</t>
-  </si>
-  <si>
     <t xml:space="preserve">LC11</t>
   </si>
   <si>
-    <t xml:space="preserve">6,2435</t>
-  </si>
-  <si>
     <t xml:space="preserve">SB28</t>
   </si>
   <si>
-    <t xml:space="preserve">4,6103</t>
-  </si>
-  <si>
     <t xml:space="preserve">SB8</t>
   </si>
   <si>
-    <t xml:space="preserve">5,3036</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-D</t>
   </si>
   <si>
-    <t xml:space="preserve">5,2970</t>
-  </si>
-  <si>
     <t xml:space="preserve">EZ-C</t>
   </si>
   <si>
-    <t xml:space="preserve">2,5526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,5886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,9749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,8063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,3161</t>
-  </si>
-  <si>
     <t xml:space="preserve">EZ-D</t>
   </si>
   <si>
-    <t xml:space="preserve">2,9066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,4806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,4742</t>
-  </si>
-  <si>
     <t xml:space="preserve">GVS3-M8</t>
   </si>
   <si>
-    <t xml:space="preserve">11,1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,6017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,2801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,5206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,6644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,6549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,1862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,7000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,1858</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-A</t>
   </si>
   <si>
-    <t xml:space="preserve">8,3723</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-B</t>
   </si>
   <si>
-    <t xml:space="preserve">6,1302</t>
-  </si>
-  <si>
     <t xml:space="preserve">VF-B</t>
   </si>
   <si>
-    <t xml:space="preserve">2,9818</t>
-  </si>
-  <si>
     <t xml:space="preserve">WV19</t>
   </si>
   <si>
-    <t xml:space="preserve">6,5786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,9769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,4042</t>
-  </si>
-  <si>
     <t xml:space="preserve">MH4-M1</t>
   </si>
   <si>
     <t xml:space="preserve">T11-GVS2</t>
   </si>
   <si>
-    <t xml:space="preserve">2,0163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,5569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,8641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,1456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,1962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,5896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,2709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,2534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,0338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,9843</t>
-  </si>
-  <si>
     <t xml:space="preserve">SB18</t>
   </si>
   <si>
-    <t xml:space="preserve">2,7326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,9700</t>
-  </si>
-  <si>
     <t xml:space="preserve">SM7-ZS16</t>
   </si>
   <si>
-    <t xml:space="preserve">4,6200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,8999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,9379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,0411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,0116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,1263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,4249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,7790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,7176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,7558</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-F</t>
   </si>
   <si>
-    <t xml:space="preserve">1,5778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,6135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,6985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,2060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,2515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,8421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,0600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,2555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,2566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,0231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,7349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,6204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,3700</t>
-  </si>
-  <si>
     <t xml:space="preserve">VF-A</t>
   </si>
   <si>
-    <t xml:space="preserve">2,7582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,1041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,7704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,8666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,4986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,7611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,5147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,2597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,5983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,4128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,0074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,5944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,7583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,3674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,6049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,0531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,3773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,6400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,9464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,0010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,1828</t>
-  </si>
-  <si>
     <t xml:space="preserve">KR-A</t>
   </si>
   <si>
-    <t xml:space="preserve">3,1576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,7454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,7364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,4907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,4424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,7647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,7038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,9748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,8716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,5811</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPORT-M</t>
   </si>
   <si>
-    <t xml:space="preserve">4,7283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,5413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,8174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,0873</t>
+    <t xml:space="preserve">finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
   </si>
 </sst>
 </file>
@@ -1097,13 +813,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -1152,24 +868,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,717 +910,913 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G55" activeCellId="0" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1919,352 +1835,352 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>157</v>
+      <c r="A1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>159</v>
+      <c r="C2" s="4" t="n">
+        <v>1.3053</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>164</v>
+        <v>202</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.6333</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>167</v>
+        <v>203</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.2135</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>204</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>4.2872</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>173</v>
+        <v>205</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.9741</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>176</v>
+        <v>206</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>5.2806</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>179</v>
+        <v>207</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2.684</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>182</v>
+        <v>208</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1.5452</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>185</v>
+        <v>209</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>2.716</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>187</v>
+      <c r="C11" s="4" t="n">
+        <v>2.2436</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>190</v>
+        <v>210</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.5457</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>193</v>
+        <v>211</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>4.1802</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>196</v>
+        <v>212</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.3145</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>198</v>
+      <c r="C15" s="4" t="n">
+        <v>13.8404</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>201</v>
+      <c r="C16" s="4" t="n">
+        <v>3.3884</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>203</v>
+        <v>216</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>8.15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>204</v>
+      <c r="C18" s="4" t="n">
+        <v>2.9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>206</v>
+        <v>217</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>6.62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>10.9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,16 +2188,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>2.6893</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,16 +2205,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>6.0969</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,16 +2222,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>5.9817</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,16 +2239,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>5.2821</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,16 +2256,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>4.2796</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,14 +2275,14 @@
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>214</v>
+      <c r="C26" s="4" t="n">
+        <v>4.1383</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,16 +2290,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>215</v>
+        <v>204</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>2.7273</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,16 +2307,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>2.4321</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,16 +2324,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>10.1864</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,14 +2343,14 @@
       <c r="B30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>219</v>
+      <c r="C30" s="4" t="n">
+        <v>14.9264</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,14 +2360,14 @@
       <c r="B31" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>222</v>
+      <c r="C31" s="4" t="n">
+        <v>2.7538</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,16 +2375,16 @@
         <v>220</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>6.2435</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,16 +2392,16 @@
         <v>220</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>4.6103</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,16 +2409,16 @@
         <v>220</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>5.3036</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,16 +2426,16 @@
         <v>220</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>5.297</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,16 +2443,16 @@
         <v>220</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>2.5526</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,16 +2460,16 @@
         <v>221</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>3.5886</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,118 +2477,118 @@
         <v>221</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>6.9749</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>235</v>
+      <c r="C39" s="4" t="n">
+        <v>3.8063</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>236</v>
+      <c r="C40" s="4" t="n">
+        <v>4.3161</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>238</v>
+        <v>226</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>2.9066</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>239</v>
+      <c r="C42" s="4" t="n">
+        <v>6.4806</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>240</v>
+        <v>223</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>8.4742</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>242</v>
+        <v>209</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>11.1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,16 +2596,16 @@
         <v>74</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>243</v>
+        <v>222</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>5.6017</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,14 +2615,14 @@
       <c r="B46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>244</v>
+      <c r="C46" s="4" t="n">
+        <v>8.2801</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,14 +2632,14 @@
       <c r="B47" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>245</v>
+      <c r="C47" s="4" t="n">
+        <v>4.5206</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,16 +2647,16 @@
         <v>74</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>246</v>
+        <v>225</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>2.6644</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,16 +2664,16 @@
         <v>74</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>247</v>
+        <v>223</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>8.6549</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,33 +2681,33 @@
         <v>74</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>6.1862</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>249</v>
+      <c r="C51" s="4" t="n">
+        <v>3.7</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,16 +2715,16 @@
         <v>28</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>250</v>
+        <v>202</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>2.1858</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,16 +2732,16 @@
         <v>65</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>252</v>
+        <v>229</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>8.3723</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,16 +2749,16 @@
         <v>65</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>254</v>
+        <v>230</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>6.1302</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,152 +2766,152 @@
         <v>65</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>256</v>
+        <v>231</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>2.9818</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>258</v>
+        <v>232</v>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>6.5786</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>259</v>
+        <v>224</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>1.9769</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>260</v>
+      <c r="C58" s="4" t="n">
+        <v>4.4042</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>263</v>
+        <v>234</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>2.0163</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>3.1993</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>265</v>
+        <v>207</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>9.5569</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>266</v>
+        <v>205</v>
+      </c>
+      <c r="C62" s="4" t="n">
+        <v>6.8641</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>267</v>
+        <v>204</v>
+      </c>
+      <c r="C63" s="4" t="n">
+        <v>5.1456</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,14 +2921,14 @@
       <c r="B64" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>268</v>
+      <c r="C64" s="4" t="n">
+        <v>2.1962</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,99 +2938,99 @@
       <c r="B65" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>269</v>
+      <c r="C65" s="4" t="n">
+        <v>3.5896</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>270</v>
+        <v>223</v>
+      </c>
+      <c r="C66" s="4" t="n">
+        <v>3.2709</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>271</v>
+      <c r="C67" s="4" t="n">
+        <v>8.2534</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>272</v>
+        <v>209</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>10.0338</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>273</v>
+        <v>232</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>7.9843</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>275</v>
+        <v>223</v>
+      </c>
+      <c r="C70" s="4" t="n">
+        <v>2.7326</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,16 +3038,16 @@
         <v>123</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>276</v>
+        <v>233</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>8.6</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,662 +3055,662 @@
         <v>123</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>277</v>
+        <v>234</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>9.97</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>279</v>
+        <v>218</v>
+      </c>
+      <c r="C73" s="4" t="n">
+        <v>4.62</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>280</v>
+        <v>229</v>
+      </c>
+      <c r="C74" s="4" t="n">
+        <v>2.8999</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>281</v>
+        <v>209</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>5.9379</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>282</v>
+        <v>232</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>4.0411</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>283</v>
+        <v>208</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>6.0116</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>284</v>
+        <v>222</v>
+      </c>
+      <c r="C78" s="4" t="n">
+        <v>3.1263</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>285</v>
+      <c r="C79" s="4" t="n">
+        <v>13.4249</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>286</v>
+        <v>226</v>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>5.779</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>287</v>
+      <c r="C81" s="4" t="n">
+        <v>8.7176</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>288</v>
+        <v>227</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>3.7558</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>290</v>
+        <v>206</v>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>1.5778</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>291</v>
+      <c r="C84" s="4" t="n">
+        <v>3.6135</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>292</v>
+        <v>204</v>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>8.6985</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>293</v>
+        <v>205</v>
+      </c>
+      <c r="C86" s="4" t="n">
+        <v>4.206</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>294</v>
+      <c r="C87" s="4" t="n">
+        <v>3.4798</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>295</v>
+      <c r="C88" s="4" t="n">
+        <v>7.2515</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>296</v>
+        <v>204</v>
+      </c>
+      <c r="C89" s="4" t="n">
+        <v>4.8421</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>297</v>
+        <v>219</v>
+      </c>
+      <c r="C90" s="4" t="n">
+        <v>7.06</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>298</v>
+        <v>202</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>9.2555</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>299</v>
+      <c r="C92" s="4" t="n">
+        <v>8.2566</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>300</v>
+        <v>204</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>6.0231</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>301</v>
+        <v>202</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>12.7349</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>302</v>
+        <v>228</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>1.6204</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>303</v>
+        <v>216</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>13.37</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>305</v>
+        <v>230</v>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>2.7582</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>306</v>
+        <v>209</v>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>8.1041</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>307</v>
+      <c r="C99" s="4" t="n">
+        <v>5.7704</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>308</v>
+        <v>203</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>2.8666</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>309</v>
+        <v>229</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>6.4986</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>310</v>
+        <v>230</v>
+      </c>
+      <c r="C102" s="4" t="n">
+        <v>3.7611</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>311</v>
+        <v>209</v>
+      </c>
+      <c r="C103" s="4" t="n">
+        <v>7.5147</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>312</v>
+        <v>203</v>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>4.2597</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>313</v>
+      <c r="C105" s="4" t="n">
+        <v>7.5983</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>314</v>
+        <v>231</v>
+      </c>
+      <c r="C106" s="4" t="n">
+        <v>6.4128</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>315</v>
+        <v>230</v>
+      </c>
+      <c r="C107" s="4" t="n">
+        <v>6.0074</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>316</v>
+        <v>238</v>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>7.5944</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>317</v>
+      <c r="C109" s="4" t="n">
+        <v>5.7583</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>318</v>
+        <v>203</v>
+      </c>
+      <c r="C110" s="4" t="n">
+        <v>10.3674</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,14 +3720,14 @@
       <c r="B111" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>319</v>
+      <c r="C111" s="4" t="n">
+        <v>2.6049</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,16 +3735,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>320</v>
+        <v>213</v>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>10.0531</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,14 +3754,14 @@
       <c r="B113" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>321</v>
+      <c r="C113" s="4" t="n">
+        <v>7.3773</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,16 +3769,16 @@
         <v>141</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>322</v>
+        <v>236</v>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>7.64</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,16 +3786,16 @@
         <v>53</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>323</v>
+        <v>203</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>4.9464</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,203 +3803,203 @@
         <v>74</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>324</v>
+        <v>235</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>7.001</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>325</v>
+      <c r="C117" s="4" t="n">
+        <v>4.1828</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>327</v>
+        <v>208</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>3.1576</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>328</v>
+        <v>232</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>3.7454</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>329</v>
+        <v>229</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>8.7364</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>330</v>
+        <v>230</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>7.4907</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>331</v>
+      <c r="C122" s="4" t="n">
+        <v>13.4424</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>332</v>
+        <v>238</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>7.7647</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>333</v>
+      <c r="C124" s="4" t="n">
+        <v>3.4361</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>334</v>
+        <v>224</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>4.7038</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>335</v>
+        <v>222</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>2.9748</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>336</v>
+        <v>225</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>4.8716</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,50 +4007,50 @@
         <v>19</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>337</v>
+        <v>207</v>
+      </c>
+      <c r="C128" s="4" t="n">
+        <v>5.5811</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>339</v>
+        <v>240</v>
+      </c>
+      <c r="C129" s="4" t="n">
+        <v>4.7283</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>340</v>
+        <v>207</v>
+      </c>
+      <c r="C130" s="4" t="n">
+        <v>4.5413</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,16 +4058,16 @@
         <v>19</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>341</v>
+        <v>240</v>
+      </c>
+      <c r="C131" s="4" t="n">
+        <v>3.8174</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,16 +4075,33 @@
         <v>28</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>342</v>
+        <v>240</v>
+      </c>
+      <c r="C132" s="4" t="n">
+        <v>4.0873</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4180,4 +4113,84 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/_data/raw.xlsx
+++ b/_data/raw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="buoys" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stretches" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="example" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="wind" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="252">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -750,30 +750,43 @@
     <t xml:space="preserve">finish</t>
   </si>
   <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
+    <t xml:space="preserve">time_utc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind_speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 knots in the north</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -868,7 +881,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -890,6 +903,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1806,7 +1827,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1837,7 +1858,7 @@
   </sheetPr>
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -4091,16 +4112,16 @@
       <c r="A133" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4120,69 +4141,267 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>246</v>
-      </c>
+      <c r="G1" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
